--- a/results/21_3_8 Experiment - Instance Based Sweeping/c0_s3_fgsm_iterations.xlsx
+++ b/results/21_3_8 Experiment - Instance Based Sweeping/c0_s3_fgsm_iterations.xlsx
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8432499766349792</v>
+        <v>0.8429999947547913</v>
       </c>
       <c r="C2">
-        <v>0.8200000524520874</v>
+        <v>0.830750048160553</v>
       </c>
       <c r="D2">
-        <v>0.8272500038146973</v>
+        <v>0.8237500190734863</v>
       </c>
       <c r="E2">
-        <v>0.8390001058578491</v>
+        <v>0.8260000348091125</v>
       </c>
       <c r="F2">
-        <v>0.843999981880188</v>
+        <v>0.8195000290870667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +458,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8930000066757202</v>
+        <v>0.8882500529289246</v>
       </c>
       <c r="C3">
-        <v>0.8797500133514404</v>
+        <v>0.8852500319480896</v>
       </c>
       <c r="D3">
-        <v>0.8765000104904175</v>
+        <v>0.8795000314712524</v>
       </c>
       <c r="E3">
-        <v>0.8862500190734863</v>
+        <v>0.8757500648498535</v>
       </c>
       <c r="F3">
-        <v>0.8860000371932983</v>
+        <v>0.8782500028610229</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,19 +478,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8439393043518066</v>
+        <v>0.8486669063568115</v>
       </c>
       <c r="C4">
-        <v>0.8225194215774536</v>
+        <v>0.8415879607200623</v>
       </c>
       <c r="D4">
-        <v>0.8402502536773682</v>
+        <v>0.831055760383606</v>
       </c>
       <c r="E4">
-        <v>0.8523917198181152</v>
-      </c>
-      <c r="F4">
-        <v>0.8827140331268311</v>
+        <v>0.7680379152297974</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,19 +495,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8936392068862915</v>
+        <v>0.8899509906768799</v>
       </c>
       <c r="C5">
-        <v>0.8824711441993713</v>
+        <v>0.8891602754592896</v>
       </c>
       <c r="D5">
-        <v>0.8816837668418884</v>
+        <v>0.881010890007019</v>
       </c>
       <c r="E5">
-        <v>0.8944976925849915</v>
-      </c>
-      <c r="F5">
-        <v>0.8960903882980347</v>
+        <v>0.853326141834259</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,19 +512,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7333333492279053</v>
+        <v>0.5597222447395325</v>
       </c>
       <c r="C6">
-        <v>0.7244578003883362</v>
+        <v>0.7240484356880188</v>
       </c>
       <c r="D6">
-        <v>0.7446864247322083</v>
+        <v>0.8057762384414673</v>
       </c>
       <c r="E6">
-        <v>0.8209798336029053</v>
+        <v>0.8247553110122681</v>
       </c>
       <c r="F6">
-        <v>0.8234015107154846</v>
+        <v>0.8173292279243469</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,19 +532,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7916666865348816</v>
+        <v>0.8159722089767456</v>
       </c>
       <c r="C7">
-        <v>0.7647804021835327</v>
+        <v>0.8330006003379822</v>
       </c>
       <c r="D7">
-        <v>0.8339591026306152</v>
+        <v>0.8664716482162476</v>
       </c>
       <c r="E7">
-        <v>0.8792526721954346</v>
+        <v>0.8791993856430054</v>
       </c>
       <c r="F7">
-        <v>0.8718401789665222</v>
+        <v>0.8810346722602844</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8512500524520874</v>
+        <v>0.8537499904632568</v>
       </c>
       <c r="C8">
-        <v>0.5407500267028809</v>
+        <v>0.5720000267028809</v>
       </c>
       <c r="D8">
-        <v>0.4099999964237213</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="E8">
-        <v>0.6095000505447388</v>
+        <v>0.8295000791549683</v>
       </c>
       <c r="F8">
-        <v>0.6880000233650208</v>
+        <v>0.8715000152587891</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -578,19 +572,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.003750000149011612</v>
+        <v>0.01750000193715096</v>
       </c>
       <c r="C9">
-        <v>0.02199999988079071</v>
+        <v>0.101000003516674</v>
       </c>
       <c r="D9">
-        <v>0.1395000070333481</v>
+        <v>0.4147500395774841</v>
       </c>
       <c r="E9">
-        <v>0.5820000171661377</v>
+        <v>0.8287500143051147</v>
       </c>
       <c r="F9">
-        <v>0.6865000128746033</v>
+        <v>0.8715000152587891</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -598,19 +592,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8336039781570435</v>
+        <v>0.7559899091720581</v>
       </c>
       <c r="C10">
-        <v>0.7899505496025085</v>
+        <v>0.7352020740509033</v>
       </c>
       <c r="D10">
-        <v>0.7761965990066528</v>
+        <v>0.7666065096855164</v>
       </c>
       <c r="E10">
-        <v>0.793118953704834</v>
+        <v>0.797055721282959</v>
       </c>
       <c r="F10">
-        <v>0.8115577697753906</v>
+        <v>0.7952351570129395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -618,36 +612,36 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8024510741233826</v>
+        <v>0.8035588264465332</v>
       </c>
       <c r="C11">
-        <v>0.8121465444564819</v>
+        <v>0.8076726198196411</v>
       </c>
       <c r="D11">
-        <v>0.8079794645309448</v>
-      </c>
-      <c r="E11">
-        <v>0.8113646507263184</v>
+        <v>0.8219923377037048</v>
       </c>
       <c r="F11">
-        <v>0.8035000562667847</v>
+        <v>0.8484794497489929</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0.7559899091720581</v>
+      </c>
       <c r="C12">
-        <v>0.7899504899978638</v>
+        <v>0.7352020740509033</v>
       </c>
       <c r="D12">
-        <v>0.7761965990066528</v>
+        <v>0.7666065096855164</v>
       </c>
       <c r="E12">
-        <v>0.793118953704834</v>
+        <v>0.797055721282959</v>
       </c>
       <c r="F12">
-        <v>0.8115577697753906</v>
+        <v>0.7952351570129395</v>
       </c>
     </row>
   </sheetData>
